--- a/Documents/Backlogs/Sprint Backlog.xlsx
+++ b/Documents/Backlogs/Sprint Backlog.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Version</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>2016-01-26</t>
+  </si>
+  <si>
+    <t>Create a function to grab and play mp3 files</t>
+  </si>
+  <si>
+    <t>Add menu tool bar to top of GUI</t>
   </si>
 </sst>
 </file>
@@ -273,6 +279,120 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -349,90 +469,9 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -447,26 +486,9 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -481,23 +503,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -756,10 +762,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -869,28 +875,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.625</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.125</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.375</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1985,39 +1991,39 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Initial" displayName="Initial" ref="B15:P31" totalsRowCount="1" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="B15:P30"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="ID" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="2" name="Story ID" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" name="Task Description" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="4" name="Assigned To" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="5" name="Status" totalsRowLabel="WORK REMAINING: " dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="1" name="ID" dataDxfId="29" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="Story ID" dataDxfId="28" totalsRowDxfId="13"/>
+    <tableColumn id="3" name="Task Description" dataDxfId="27" totalsRowDxfId="12"/>
+    <tableColumn id="4" name="Assigned To" dataDxfId="26" totalsRowDxfId="11"/>
+    <tableColumn id="5" name="Status" totalsRowLabel="WORK REMAINING: " dataDxfId="25" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Estimate" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="9" name="2016-01-19" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="6" name="Estimate" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="9"/>
+    <tableColumn id="9" name="2016-01-19" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="8">
       <totalsRowFormula>IF(COUNTA(Initial[2016-01-19])&gt;0,Initial[[#Totals],[Estimate]]-SUBTOTAL(109,Initial[2016-01-19]),NA())</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="2016-01-20" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="10" name="2016-01-20" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="7">
       <totalsRowFormula>IF(COUNTA(Initial[2016-01-20])&gt;0,Initial[[#Totals],[2016-01-19]]-SUBTOTAL(109,Initial[2016-01-20]),NA())</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="2016-01-21" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="11" name="2016-01-21" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="6">
       <totalsRowFormula>IF(COUNTA(Initial[2016-01-21])&gt;0,Initial[[#Totals],[2016-01-20]]-SUBTOTAL(109,Initial[2016-01-21]),NA())</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="2016-01-22" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="12" name="2016-01-22" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="5">
       <totalsRowFormula>IF(COUNTA(Initial[2016-01-22])&gt;0,Initial[[#Totals],[2016-01-21]]-SUBTOTAL(109,Initial[2016-01-22]),NA())</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="2016-01-23" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="13" name="2016-01-23" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="4">
       <totalsRowFormula>IF(COUNTA(Initial[2016-01-23])&gt;0,Initial[[#Totals],[2016-01-22]]-SUBTOTAL(109,Initial[2016-01-23]),NA())</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" name="2016-01-24" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="14" name="2016-01-24" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="3">
       <totalsRowFormula>IF(COUNTA(Initial[2016-01-24])&gt;0,Initial[[#Totals],[2016-01-23]]-SUBTOTAL(109,Initial[2016-01-24]),NA())</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="2016-01-25" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="16" name="2016-01-25" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="2">
       <totalsRowFormula>IF(COUNTA(Initial[2016-01-25])&gt;0,Initial[[#Totals],[2016-01-24]]-SUBTOTAL(109,Initial[2016-01-25]),NA())</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" name="2016-01-26" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="15" name="2016-01-26" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="1">
       <totalsRowFormula>IF(COUNTA(Initial[2016-01-26])&gt;0,Initial[[#Totals],[2016-01-25]]-SUBTOTAL(109,Initial[2016-01-26]),NA())</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Remaining" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="8" name="Remaining" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="0">
       <calculatedColumnFormula>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2416,8 +2422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,35 +2470,35 @@
       </c>
       <c r="G14" s="31">
         <f>Initial[[#Totals],[Estimate]]</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H14" s="31">
         <f>G14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-01-26]])-1))</f>
-        <v>2.625</v>
+        <v>6.125</v>
       </c>
       <c r="I14" s="31">
         <f>H14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-01-26]])-1))</f>
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="J14" s="31">
         <f>I14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-01-26]])-1))</f>
-        <v>1.875</v>
+        <v>4.375</v>
       </c>
       <c r="K14" s="31">
         <f>J14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-01-26]])-1))</f>
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L14" s="31">
         <f>K14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-01-26]])-1))</f>
-        <v>1.125</v>
+        <v>2.625</v>
       </c>
       <c r="M14" s="31">
         <f>L14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-01-26]])-1))</f>
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="N14" s="31">
         <f>M14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-01-26]])-1))</f>
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="O14" s="31">
         <f>N14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-01-26]])-1))</f>
@@ -2620,12 +2626,25 @@
       <c r="B18" s="15">
         <v>3</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="15" t="str">
+        <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="G18" s="15">
+        <v>2</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -2633,18 +2652,34 @@
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
-      <c r="P18" s="18"/>
+      <c r="P18" s="18">
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="15">
-        <v>4</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="15" t="str">
+        <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
+        <v>Not Started</v>
+      </c>
+      <c r="G19" s="15">
+        <v>2</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
@@ -2652,7 +2687,10 @@
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
-      <c r="P19" s="18"/>
+      <c r="P19" s="18">
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="15">
@@ -2661,7 +2699,10 @@
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="15" t="str">
+        <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
+        <v>Not Started</v>
+      </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
@@ -2671,7 +2712,10 @@
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
-      <c r="P20" s="18"/>
+      <c r="P20" s="18">
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="15">
@@ -2680,7 +2724,10 @@
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="15" t="str">
+        <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
+        <v>Not Started</v>
+      </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
@@ -2690,7 +2737,10 @@
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
-      <c r="P21" s="18"/>
+      <c r="P21" s="18">
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="15">
@@ -2699,7 +2749,10 @@
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="15" t="str">
+        <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
+        <v>Not Started</v>
+      </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -2709,7 +2762,10 @@
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
-      <c r="P22" s="18"/>
+      <c r="P22" s="18">
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="15">
@@ -2718,7 +2774,10 @@
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="F23" s="15" t="str">
+        <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
+        <v>Not Started</v>
+      </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
@@ -2728,7 +2787,10 @@
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
-      <c r="P23" s="18"/>
+      <c r="P23" s="18">
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="15">
@@ -2737,7 +2799,10 @@
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="15" t="str">
+        <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
+        <v>Not Started</v>
+      </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -2747,7 +2812,10 @@
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
-      <c r="P24" s="18"/>
+      <c r="P24" s="18">
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="15">
@@ -2756,7 +2824,10 @@
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="F25" s="15" t="str">
+        <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
+        <v>Not Started</v>
+      </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
@@ -2766,7 +2837,10 @@
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
-      <c r="P25" s="18"/>
+      <c r="P25" s="18">
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="15">
@@ -2775,7 +2849,10 @@
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="15" t="str">
+        <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
+        <v>Not Started</v>
+      </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
@@ -2785,7 +2862,10 @@
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
-      <c r="P26" s="18"/>
+      <c r="P26" s="18">
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="15">
@@ -2794,7 +2874,10 @@
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="15" t="str">
+        <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
+        <v>Not Started</v>
+      </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
@@ -2804,7 +2887,10 @@
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
-      <c r="P27" s="18"/>
+      <c r="P27" s="18">
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="15">
@@ -2813,7 +2899,10 @@
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="15" t="str">
+        <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
+        <v>Not Started</v>
+      </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
@@ -2823,7 +2912,10 @@
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
-      <c r="P28" s="18"/>
+      <c r="P28" s="18">
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="15">
@@ -2832,7 +2924,10 @@
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="F29" s="15" t="str">
+        <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
+        <v>Not Started</v>
+      </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -2842,7 +2937,10 @@
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
-      <c r="P29" s="18"/>
+      <c r="P29" s="18">
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="15">
@@ -2851,7 +2949,10 @@
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
       <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="F30" s="15" t="str">
+        <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
+        <v>Not Started</v>
+      </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
@@ -2861,7 +2962,10 @@
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
-      <c r="P30" s="18"/>
+      <c r="P30" s="18">
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
@@ -2873,11 +2977,11 @@
       </c>
       <c r="G31" s="6">
         <f>SUBTOTAL(109,Initial[Estimate])</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H31" s="6">
         <f>IF(COUNTA(Initial[2016-01-19])&gt;0,Initial[[#Totals],[Estimate]]-SUBTOTAL(109,Initial[2016-01-19]),NA())</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I31" s="6" t="e">
         <f>IF(COUNTA(Initial[2016-01-20])&gt;0,Initial[[#Totals],[2016-01-19]]-SUBTOTAL(109,Initial[2016-01-20]),NA())</f>
@@ -2909,7 +3013,7 @@
       </c>
       <c r="P31" s="6">
         <f>SUBTOTAL(109,Initial[Remaining])</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">

--- a/Documents/Backlogs/Sprint Backlog.xlsx
+++ b/Documents/Backlogs/Sprint Backlog.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Version</t>
   </si>
@@ -118,37 +118,49 @@
     <t>Shuffle, playlist, etc. Buttons to add</t>
   </si>
   <si>
-    <t>unassigned</t>
-  </si>
-  <si>
-    <t>2016-01-19</t>
-  </si>
-  <si>
-    <t>2016-01-20</t>
-  </si>
-  <si>
-    <t>2016-01-21</t>
-  </si>
-  <si>
-    <t>2016-01-22</t>
-  </si>
-  <si>
-    <t>2016-01-23</t>
-  </si>
-  <si>
-    <t>2016-01-24</t>
-  </si>
-  <si>
     <t>2016-01-25</t>
   </si>
   <si>
     <t>2016-01-26</t>
   </si>
   <si>
-    <t>Create a function to grab and play mp3 files</t>
-  </si>
-  <si>
-    <t>Add menu tool bar to top of GUI</t>
+    <t>File structure</t>
+  </si>
+  <si>
+    <t>Trevor</t>
+  </si>
+  <si>
+    <t>Gino</t>
+  </si>
+  <si>
+    <t>Pause and Play</t>
+  </si>
+  <si>
+    <t>Volumn Control</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Song Object</t>
+  </si>
+  <si>
+    <t>2016-01-27</t>
+  </si>
+  <si>
+    <t>2016-01-28</t>
+  </si>
+  <si>
+    <t>2016-01-29</t>
+  </si>
+  <si>
+    <t>2016-01-30</t>
+  </si>
+  <si>
+    <t>2016-01-31</t>
+  </si>
+  <si>
+    <t>2016-02-01</t>
   </si>
 </sst>
 </file>
@@ -729,28 +741,28 @@
                   <c:v>Estimate</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2016-01-19</c:v>
+                  <c:v>2016-01-25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2016-01-20</c:v>
+                  <c:v>2016-01-26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2016-01-21</c:v>
+                  <c:v>2016-01-27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2016-01-22</c:v>
+                  <c:v>2016-01-28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2016-01-23</c:v>
+                  <c:v>2016-01-29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2016-01-24</c:v>
+                  <c:v>2016-01-30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2016-01-25</c:v>
+                  <c:v>2016-01-31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2016-01-26</c:v>
+                  <c:v>2016-02-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -762,31 +774,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,28 +887,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.125</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.25</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.375</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.625</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.75</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.875</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1999,32 +2011,32 @@
       <calculatedColumnFormula>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Estimate" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="9"/>
-    <tableColumn id="9" name="2016-01-19" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="8">
-      <totalsRowFormula>IF(COUNTA(Initial[2016-01-19])&gt;0,Initial[[#Totals],[Estimate]]-SUBTOTAL(109,Initial[2016-01-19]),NA())</totalsRowFormula>
+    <tableColumn id="9" name="2016-01-25" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="8">
+      <totalsRowFormula>IF(COUNTA(Initial[2016-01-25])&gt;0,Initial[[#Totals],[Estimate]]-SUBTOTAL(109,Initial[2016-01-25]),NA())</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="2016-01-20" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="7">
-      <totalsRowFormula>IF(COUNTA(Initial[2016-01-20])&gt;0,Initial[[#Totals],[2016-01-19]]-SUBTOTAL(109,Initial[2016-01-20]),NA())</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="11" name="2016-01-21" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="6">
-      <totalsRowFormula>IF(COUNTA(Initial[2016-01-21])&gt;0,Initial[[#Totals],[2016-01-20]]-SUBTOTAL(109,Initial[2016-01-21]),NA())</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="12" name="2016-01-22" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="5">
-      <totalsRowFormula>IF(COUNTA(Initial[2016-01-22])&gt;0,Initial[[#Totals],[2016-01-21]]-SUBTOTAL(109,Initial[2016-01-22]),NA())</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="13" name="2016-01-23" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="4">
-      <totalsRowFormula>IF(COUNTA(Initial[2016-01-23])&gt;0,Initial[[#Totals],[2016-01-22]]-SUBTOTAL(109,Initial[2016-01-23]),NA())</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="14" name="2016-01-24" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="3">
-      <totalsRowFormula>IF(COUNTA(Initial[2016-01-24])&gt;0,Initial[[#Totals],[2016-01-23]]-SUBTOTAL(109,Initial[2016-01-24]),NA())</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="16" name="2016-01-25" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="2">
-      <totalsRowFormula>IF(COUNTA(Initial[2016-01-25])&gt;0,Initial[[#Totals],[2016-01-24]]-SUBTOTAL(109,Initial[2016-01-25]),NA())</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="15" name="2016-01-26" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="1">
+    <tableColumn id="10" name="2016-01-26" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="7">
       <totalsRowFormula>IF(COUNTA(Initial[2016-01-26])&gt;0,Initial[[#Totals],[2016-01-25]]-SUBTOTAL(109,Initial[2016-01-26]),NA())</totalsRowFormula>
     </tableColumn>
+    <tableColumn id="11" name="2016-01-27" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="6">
+      <totalsRowFormula>IF(COUNTA(Initial[2016-01-27])&gt;0,Initial[[#Totals],[2016-01-26]]-SUBTOTAL(109,Initial[2016-01-27]),NA())</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" name="2016-01-28" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="5">
+      <totalsRowFormula>IF(COUNTA(Initial[2016-01-28])&gt;0,Initial[[#Totals],[2016-01-27]]-SUBTOTAL(109,Initial[2016-01-28]),NA())</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" name="2016-01-29" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="4">
+      <totalsRowFormula>IF(COUNTA(Initial[2016-01-29])&gt;0,Initial[[#Totals],[2016-01-28]]-SUBTOTAL(109,Initial[2016-01-29]),NA())</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" name="2016-01-30" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="3">
+      <totalsRowFormula>IF(COUNTA(Initial[2016-01-30])&gt;0,Initial[[#Totals],[2016-01-29]]-SUBTOTAL(109,Initial[2016-01-30]),NA())</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" name="2016-01-31" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="2">
+      <totalsRowFormula>IF(COUNTA(Initial[2016-01-31])&gt;0,Initial[[#Totals],[2016-01-30]]-SUBTOTAL(109,Initial[2016-01-31]),NA())</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" name="2016-02-01" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="1">
+      <totalsRowFormula>IF(COUNTA(Initial[2016-02-01])&gt;0,Initial[[#Totals],[2016-01-31]]-SUBTOTAL(109,Initial[2016-02-01]),NA())</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="8" name="Remaining" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="0">
-      <calculatedColumnFormula>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</calculatedColumnFormula>
+      <calculatedColumnFormula>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-25]:[2016-02-01]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2422,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,38 +2482,38 @@
       </c>
       <c r="G14" s="31">
         <f>Initial[[#Totals],[Estimate]]</f>
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="H14" s="31">
-        <f>G14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-01-26]])-1))</f>
-        <v>6.125</v>
+        <f>G14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-02-01]])-1))</f>
+        <v>38.5</v>
       </c>
       <c r="I14" s="31">
-        <f>H14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-01-26]])-1))</f>
-        <v>5.25</v>
+        <f>H14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-02-01]])-1))</f>
+        <v>33</v>
       </c>
       <c r="J14" s="31">
-        <f>I14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-01-26]])-1))</f>
-        <v>4.375</v>
+        <f>I14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-02-01]])-1))</f>
+        <v>27.5</v>
       </c>
       <c r="K14" s="31">
-        <f>J14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-01-26]])-1))</f>
-        <v>3.5</v>
+        <f>J14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-02-01]])-1))</f>
+        <v>22</v>
       </c>
       <c r="L14" s="31">
-        <f>K14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-01-26]])-1))</f>
-        <v>2.625</v>
+        <f>K14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-02-01]])-1))</f>
+        <v>16.5</v>
       </c>
       <c r="M14" s="31">
-        <f>L14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-01-26]])-1))</f>
-        <v>1.75</v>
+        <f>L14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-02-01]])-1))</f>
+        <v>11</v>
       </c>
       <c r="N14" s="31">
-        <f>M14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-01-26]])-1))</f>
-        <v>0.875</v>
+        <f>M14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-02-01]])-1))</f>
+        <v>5.5</v>
       </c>
       <c r="O14" s="31">
-        <f>N14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-01-26]])-1))</f>
+        <f>N14-($G$14/(COUNTA(Initial[[#Headers],[Estimate]:[2016-02-01]])-1))</f>
         <v>0</v>
       </c>
     </row>
@@ -2525,28 +2537,28 @@
         <v>17</v>
       </c>
       <c r="H15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="J15" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="P15" s="17" t="s">
         <v>18</v>
@@ -2567,24 +2579,38 @@
       </c>
       <c r="F16" s="15" t="str">
         <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
-        <v>In Progress</v>
+        <v>Complete</v>
       </c>
       <c r="G16" s="15">
         <v>2</v>
       </c>
       <c r="H16" s="15">
-        <v>1</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+      <c r="N16" s="15">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0</v>
+      </c>
       <c r="P16" s="18">
-        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
-        <v>1</v>
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-25]:[2016-02-01]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -2598,28 +2624,42 @@
         <v>24</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F17" s="15" t="str">
         <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
-        <v>Not Started</v>
+        <v>Complete</v>
       </c>
       <c r="G17" s="15">
         <v>1</v>
       </c>
       <c r="H17" s="15">
+        <v>1</v>
+      </c>
+      <c r="I17" s="15">
         <v>0</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
+      <c r="J17" s="15">
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0</v>
+      </c>
+      <c r="N17" s="15">
+        <v>0</v>
+      </c>
+      <c r="O17" s="15">
+        <v>0</v>
+      </c>
       <c r="P17" s="18">
-        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
-        <v>1</v>
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-25]:[2016-02-01]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -2627,20 +2667,20 @@
         <v>3</v>
       </c>
       <c r="C18" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F18" s="15" t="str">
         <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
         <v>Not Started</v>
       </c>
       <c r="G18" s="15">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H18" s="15">
         <v>0</v>
@@ -2653,29 +2693,29 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="18">
-        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
-        <v>2</v>
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-25]:[2016-02-01]])</f>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="15">
         <v>2</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F19" s="15" t="str">
         <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
         <v>Not Started</v>
       </c>
       <c r="G19" s="15">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H19" s="15">
         <v>0</v>
@@ -2688,23 +2728,33 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="18">
-        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
-        <v>2</v>
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-25]:[2016-02-01]])</f>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="15">
         <v>5</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="15"/>
+      <c r="C20" s="15">
+        <v>6</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="F20" s="15" t="str">
         <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
         <v>Not Started</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="G20" s="15">
+        <v>4</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
@@ -2713,23 +2763,33 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="18">
-        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
-        <v>0</v>
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-25]:[2016-02-01]])</f>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="15">
         <v>6</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="15">
+        <v>6</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="F21" s="15" t="str">
         <f>IF(Initial[[#This Row],[Estimate]]=Initial[[#This Row],[Remaining]],"Not Started",IF(Initial[Remaining]=0,"Complete","In Progress"))</f>
         <v>Not Started</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="G21" s="15">
+        <v>5</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
@@ -2738,8 +2798,8 @@
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="18">
-        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
-        <v>0</v>
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-25]:[2016-02-01]])</f>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -2763,7 +2823,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="18">
-        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-25]:[2016-02-01]])</f>
         <v>0</v>
       </c>
     </row>
@@ -2788,7 +2848,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="18">
-        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-25]:[2016-02-01]])</f>
         <v>0</v>
       </c>
     </row>
@@ -2813,7 +2873,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="18">
-        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-25]:[2016-02-01]])</f>
         <v>0</v>
       </c>
     </row>
@@ -2838,7 +2898,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="18">
-        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-25]:[2016-02-01]])</f>
         <v>0</v>
       </c>
     </row>
@@ -2863,7 +2923,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="18">
-        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-25]:[2016-02-01]])</f>
         <v>0</v>
       </c>
     </row>
@@ -2888,7 +2948,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="18">
-        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-25]:[2016-02-01]])</f>
         <v>0</v>
       </c>
     </row>
@@ -2913,7 +2973,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="18">
-        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-25]:[2016-02-01]])</f>
         <v>0</v>
       </c>
     </row>
@@ -2938,7 +2998,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="18">
-        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-25]:[2016-02-01]])</f>
         <v>0</v>
       </c>
     </row>
@@ -2963,7 +3023,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
       <c r="P30" s="18">
-        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-19]:[2016-01-26]])</f>
+        <f>Initial[[#This Row],[Estimate]]-SUM(Initial[[#This Row],[2016-01-25]:[2016-02-01]])</f>
         <v>0</v>
       </c>
     </row>
@@ -2977,43 +3037,43 @@
       </c>
       <c r="G31" s="6">
         <f>SUBTOTAL(109,Initial[Estimate])</f>
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="H31" s="6">
-        <f>IF(COUNTA(Initial[2016-01-19])&gt;0,Initial[[#Totals],[Estimate]]-SUBTOTAL(109,Initial[2016-01-19]),NA())</f>
-        <v>6</v>
-      </c>
-      <c r="I31" s="6" t="e">
-        <f>IF(COUNTA(Initial[2016-01-20])&gt;0,Initial[[#Totals],[2016-01-19]]-SUBTOTAL(109,Initial[2016-01-20]),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J31" s="6" t="e">
-        <f>IF(COUNTA(Initial[2016-01-21])&gt;0,Initial[[#Totals],[2016-01-20]]-SUBTOTAL(109,Initial[2016-01-21]),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K31" s="6" t="e">
-        <f>IF(COUNTA(Initial[2016-01-22])&gt;0,Initial[[#Totals],[2016-01-21]]-SUBTOTAL(109,Initial[2016-01-22]),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L31" s="6" t="e">
-        <f>IF(COUNTA(Initial[2016-01-23])&gt;0,Initial[[#Totals],[2016-01-22]]-SUBTOTAL(109,Initial[2016-01-23]),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M31" s="6" t="e">
-        <f>IF(COUNTA(Initial[2016-01-24])&gt;0,Initial[[#Totals],[2016-01-23]]-SUBTOTAL(109,Initial[2016-01-24]),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N31" s="6" t="e">
-        <f>IF(COUNTA(Initial[2016-01-25])&gt;0,Initial[[#Totals],[2016-01-24]]-SUBTOTAL(109,Initial[2016-01-25]),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O31" s="6" t="e">
+        <f>IF(COUNTA(Initial[2016-01-25])&gt;0,Initial[[#Totals],[Estimate]]-SUBTOTAL(109,Initial[2016-01-25]),NA())</f>
+        <v>41</v>
+      </c>
+      <c r="I31" s="6">
         <f>IF(COUNTA(Initial[2016-01-26])&gt;0,Initial[[#Totals],[2016-01-25]]-SUBTOTAL(109,Initial[2016-01-26]),NA())</f>
-        <v>#N/A</v>
+        <v>41</v>
+      </c>
+      <c r="J31" s="6">
+        <f>IF(COUNTA(Initial[2016-01-27])&gt;0,Initial[[#Totals],[2016-01-26]]-SUBTOTAL(109,Initial[2016-01-27]),NA())</f>
+        <v>41</v>
+      </c>
+      <c r="K31" s="6">
+        <f>IF(COUNTA(Initial[2016-01-28])&gt;0,Initial[[#Totals],[2016-01-27]]-SUBTOTAL(109,Initial[2016-01-28]),NA())</f>
+        <v>41</v>
+      </c>
+      <c r="L31" s="6">
+        <f>IF(COUNTA(Initial[2016-01-29])&gt;0,Initial[[#Totals],[2016-01-28]]-SUBTOTAL(109,Initial[2016-01-29]),NA())</f>
+        <v>41</v>
+      </c>
+      <c r="M31" s="6">
+        <f>IF(COUNTA(Initial[2016-01-30])&gt;0,Initial[[#Totals],[2016-01-29]]-SUBTOTAL(109,Initial[2016-01-30]),NA())</f>
+        <v>41</v>
+      </c>
+      <c r="N31" s="6">
+        <f>IF(COUNTA(Initial[2016-01-31])&gt;0,Initial[[#Totals],[2016-01-30]]-SUBTOTAL(109,Initial[2016-01-31]),NA())</f>
+        <v>41</v>
+      </c>
+      <c r="O31" s="6">
+        <f>IF(COUNTA(Initial[2016-02-01])&gt;0,Initial[[#Totals],[2016-01-31]]-SUBTOTAL(109,Initial[2016-02-01]),NA())</f>
+        <v>41</v>
       </c>
       <c r="P31" s="6">
         <f>SUBTOTAL(109,Initial[Remaining])</f>
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
